--- a/spotify-mood-music-recommendations/Sample Data.xlsx
+++ b/spotify-mood-music-recommendations/Sample Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franklin.liu\Documents\projects\ml-stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franklin.liu\Documents\projects\ml-stuff\spotify-mood-music-recommendations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA4C13A-1085-48C6-99B1-2357513170C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F3ECCB-2623-4436-9877-D67E81B81F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="2700" windowWidth="18270" windowHeight="11340" xr2:uid="{F838E05B-0118-8944-8238-D7CA2FE7EE12}"/>
+    <workbookView xWindow="31635" yWindow="495" windowWidth="21600" windowHeight="11385" xr2:uid="{F838E05B-0118-8944-8238-D7CA2FE7EE12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
   <si>
     <t>Song</t>
   </si>
@@ -234,9 +234,6 @@
     <t>Victorious Cast</t>
   </si>
   <si>
-    <t>'Till I Collapse</t>
-  </si>
-  <si>
     <t>Eminem</t>
   </si>
   <si>
@@ -340,6 +337,39 @@
   </si>
   <si>
     <t>JoJo</t>
+  </si>
+  <si>
+    <t>Frantic</t>
+  </si>
+  <si>
+    <t>Lonely</t>
+  </si>
+  <si>
+    <t>Energetic</t>
+  </si>
+  <si>
+    <t>Calm</t>
+  </si>
+  <si>
+    <t>Contentment</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Exuberant</t>
+  </si>
+  <si>
+    <t>Anxious</t>
+  </si>
+  <si>
+    <t>Enraged</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>Till I Collapse</t>
   </si>
 </sst>
 </file>
@@ -513,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -529,6 +559,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,7 +877,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -886,7 +917,9 @@
         <v>7</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
@@ -899,7 +932,9 @@
         <v>10</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5"/>
@@ -912,7 +947,9 @@
         <v>12</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
@@ -925,7 +962,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
@@ -938,7 +977,9 @@
         <v>16</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
@@ -951,7 +992,9 @@
         <v>18</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
@@ -964,7 +1007,9 @@
         <v>20</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -977,7 +1022,9 @@
         <v>22</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
@@ -990,7 +1037,9 @@
         <v>24</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
@@ -1003,7 +1052,9 @@
         <v>26</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
@@ -1016,7 +1067,9 @@
         <v>28</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
@@ -1029,7 +1082,9 @@
         <v>30</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
@@ -1042,7 +1097,9 @@
         <v>32</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
@@ -1055,7 +1112,9 @@
         <v>34</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
@@ -1068,7 +1127,9 @@
         <v>36</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
@@ -1081,7 +1142,9 @@
         <v>38</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
@@ -1094,7 +1157,9 @@
         <v>40</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
@@ -1107,7 +1172,9 @@
         <v>42</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
@@ -1120,7 +1187,9 @@
         <v>44</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
@@ -1133,7 +1202,9 @@
         <v>46</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
@@ -1146,7 +1217,9 @@
         <v>48</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
@@ -1159,7 +1232,9 @@
         <v>52</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
@@ -1172,7 +1247,9 @@
         <v>50</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="5"/>
@@ -1185,7 +1262,9 @@
         <v>54</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
@@ -1198,7 +1277,9 @@
         <v>56</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="5"/>
@@ -1211,7 +1292,9 @@
         <v>58</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="5"/>
@@ -1224,7 +1307,9 @@
         <v>60</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -1237,7 +1322,9 @@
         <v>62</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="5"/>
@@ -1250,7 +1337,9 @@
         <v>66</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -1263,137 +1352,159 @@
         <v>64</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="D33" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="5"/>
@@ -1406,111 +1517,129 @@
         <v>36</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="D43" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="D44" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="D46" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="D47" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="D49" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="5"/>
@@ -1523,7 +1652,9 @@
         <v>52</v>
       </c>
       <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="D51" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="9"/>
